--- a/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
+++ b/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\endo-learn\GBEtPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/VA/endo-learn/GBEtPR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A17776-33E1-4D25-B0A0-2CE257375687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED142E9B-12C7-BD43-8C5A-BC280743726B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Source:</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Like NREL, we take a 4 hour duration storage system as our default.</t>
+  </si>
+  <si>
+    <t>Virginia</t>
   </si>
 </sst>
 </file>
@@ -81,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -139,7 +142,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -151,7 +154,8 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,18 +443,24 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" customWidth="1"/>
-    <col min="2" max="2" width="46.81640625" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,59 +468,59 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
     </row>
   </sheetData>
@@ -530,18 +540,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
